--- a/biology/Zoologie/Horus_granulatus/Horus_granulatus.xlsx
+++ b/biology/Zoologie/Horus_granulatus/Horus_granulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Horus granulatus est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud, en Namibie et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Beier en 1964 mesure 3,5 mm et la femelle 4,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Beier en 1964 mesure 3,5 mm et la femelle 4,3 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypinus obscurus granulatus par Ellingsen en 1912. Elle est élevée au rang d'espèce et placée dans le genre Horus par Chamberlin en 1930[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypinus obscurus granulatus par Ellingsen en 1912. Elle est élevée au rang d'espèce et placée dans le genre Horus par Chamberlin en 1930.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ellingsen, 1912 : The pseudoscorpions of South Africa, based on the collections of the South African Museum, Cape Town. Annals of the South African Museum, vol. 10, p. 75-128 (texte intégral).</t>
         </is>
